--- a/dist/data/profiles/xlsx/bluff/profile 32-4 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 32-4 graph.xlsx
@@ -16174,11 +16174,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31770100"/>
-        <c:axId val="80272524"/>
+        <c:axId val="2088243"/>
+        <c:axId val="14693457"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31770100"/>
+        <c:axId val="2088243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16213,12 +16213,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80272524"/>
+        <c:crossAx val="14693457"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80272524"/>
+        <c:axId val="14693457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16262,7 +16262,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31770100"/>
+        <c:crossAx val="2088243"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
